--- a/bioinfo-m2/Results/Organelles/Land Plants/Total_chloroplast.xlsx
+++ b/bioinfo-m2/Results/Organelles/Land Plants/Total_chloroplast.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -480,31 +480,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>533269.0</v>
+        <v>535150.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>4.056227001270716</v>
+        <v>4.055916548844369</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>483855.0</v>
+        <v>485656.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>3.6803671612260267</v>
+        <v>3.6808001634038323</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>475131.0</v>
+        <v>476874.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>3.6140094236506464</v>
+        <v>3.6142411441906184</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>28420.0</v>
+        <v>28508.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>18862.0</v>
+        <v>18936.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>17569.0</v>
+        <v>17630.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>141778.0</v>
+        <v>142325.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.0784121180607902</v>
+        <v>1.0786850842086795</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>211439.0</v>
+        <v>212211.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.6082775877121658</v>
+        <v>1.6083529977516817</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>240414.0</v>
+        <v>241281.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>1.8286713802668033</v>
+        <v>1.8286753262108162</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>8061.0</v>
+        <v>8083.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>19345.0</v>
+        <v>19425.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>29258.0</v>
+        <v>29349.0</v>
       </c>
     </row>
     <row r="4">
@@ -550,37 +550,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>208609.0</v>
+        <v>209251.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.5867516366188223</v>
+        <v>1.585919076450029</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>364909.0</v>
+        <v>366248.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>2.775623069795348</v>
+        <v>2.775803651651224</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>196807.0</v>
+        <v>197552.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>1.496981574850752</v>
+        <v>1.4972520341162343</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>13818.0</v>
+        <v>13848.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>29747.0</v>
+        <v>29847.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>10996.0</v>
+        <v>11047.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>3.2879236E7</v>
+        <v>3.299773E7</v>
       </c>
     </row>
     <row r="5">
@@ -588,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>477565.0</v>
+        <v>479375.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>3.63252326285955</v>
+        <v>3.6331962918850214</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>322593.0</v>
+        <v>323725.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>2.453753053376296</v>
+        <v>2.4535206666815723</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>426134.0</v>
+        <v>427759.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>3.24132142869639</v>
+        <v>3.2419972101599894</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>21300.0</v>
+        <v>21366.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>8434.0</v>
+        <v>8459.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>26559.0</v>
+        <v>26650.0</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>191795.0</v>
+        <v>192528.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>1.458858583020421</v>
+        <v>1.4591750001231591</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>157005.0</v>
+        <v>157595.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.1942339050920057</v>
+        <v>1.194416833626326</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>198499.0</v>
+        <v>199274.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.509851507447903</v>
+        <v>1.51030311941402</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>24082.0</v>
+        <v>24154.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>12913.0</v>
+        <v>12952.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>22695.0</v>
+        <v>22778.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>141778.0</v>
+        <v>142325.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,31 +658,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>117459.0</v>
+        <v>117880.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>0.8934334591777452</v>
+        <v>0.893415757783377</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>79801.0</v>
+        <v>80093.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.6069937891165704</v>
+        <v>0.6070270468963693</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>151459.0</v>
+        <v>152014.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>1.1520491260235666</v>
+        <v>1.1521182813342574</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>20965.0</v>
+        <v>21035.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>10226.0</v>
+        <v>10271.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>27673.0</v>
+        <v>27776.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>78302.0</v>
+        <v>78576.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.5955918807459267</v>
+        <v>0.5955296622292724</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>93833.0</v>
+        <v>94196.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.7137259960924693</v>
+        <v>0.7139140712602899</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>118890.0</v>
+        <v>119360.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.9043181362146973</v>
+        <v>0.9046327184342032</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>18453.0</v>
+        <v>18503.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>19863.0</v>
+        <v>19930.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>28942.0</v>
+        <v>29038.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -728,31 +728,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>286953.0</v>
+        <v>287893.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.182662983776735</v>
+        <v>2.1819489544921087</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>92071.0</v>
+        <v>92410.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.7003236194753418</v>
+        <v>0.7003779282046307</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>143987.0</v>
+        <v>144604.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.095214530062626</v>
+        <v>1.0959576878054584</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>39585.0</v>
+        <v>39692.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>3102.0</v>
+        <v>3110.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>9058.0</v>
+        <v>9119.0</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>229349.0</v>
+        <v>230206.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.7445071933947736</v>
+        <v>1.7447375970162886</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>215276.0</v>
+        <v>215978.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.637463126350031</v>
+        <v>1.636903194219021</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>405028.0</v>
+        <v>406562.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>3.080781950330275</v>
+        <v>3.081344564946771</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>13630.0</v>
+        <v>13679.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>11818.0</v>
+        <v>11844.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>31842.0</v>
+        <v>31952.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -798,31 +798,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>65095.0</v>
+        <v>65317.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.49513490686261014</v>
+        <v>0.4950393370473094</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>67140.0</v>
+        <v>67314.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>0.510689878589072</v>
+        <v>0.510174654898458</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>239445.0</v>
+        <v>240328.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>1.8213008337616972</v>
+        <v>1.82145251303498</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>8864.0</v>
+        <v>8908.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>11322.0</v>
+        <v>11354.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>40558.0</v>
+        <v>40702.0</v>
       </c>
     </row>
     <row r="12">
@@ -830,31 +830,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>85300.0</v>
+        <v>85609.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.6488210700573107</v>
+        <v>0.6488329624030974</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>148615.0</v>
+        <v>149115.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>1.130416686126228</v>
+        <v>1.1301466807080782</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>263253.0</v>
+        <v>264136.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>2.0023926512989125</v>
+        <v>2.001893998963947</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>9360.0</v>
+        <v>9398.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>15689.0</v>
+        <v>15735.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>35800.0</v>
+        <v>35913.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -868,31 +868,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>214845.0</v>
+        <v>215602.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>1.6341847924556028</v>
+        <v>1.6340534798915138</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>83257.0</v>
+        <v>83536.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.6332813110171339</v>
+        <v>0.6331216384644739</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>216829.0</v>
+        <v>217624.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.6492757772503708</v>
+        <v>1.6493782734293319</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>23626.0</v>
+        <v>23709.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>3816.0</v>
+        <v>3833.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>29090.0</v>
+        <v>29189.0</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>329033.0</v>
+        <v>330331.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>2.5027379032141512</v>
+        <v>2.5035877221270844</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>415071.0</v>
+        <v>416689.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>3.1571724545106448</v>
+        <v>3.158097376102796</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>158911.0</v>
+        <v>159449.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>1.2087315951216566</v>
+        <v>1.2084683505497258</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>21903.0</v>
+        <v>21986.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>28651.0</v>
+        <v>28745.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>6477.0</v>
+        <v>6496.0</v>
       </c>
     </row>
     <row r="15">
@@ -932,31 +932,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>218218.0</v>
+        <v>219061.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>1.659840987875337</v>
+        <v>1.6602693358990868</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>357688.0</v>
+        <v>359018.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.720697665963181</v>
+        <v>2.7210072830664442</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>253475.0</v>
+        <v>254397.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.9280178280513112</v>
+        <v>1.9280818504650303</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>16397.0</v>
+        <v>16455.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>26842.0</v>
+        <v>26929.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>16798.0</v>
+        <v>16845.0</v>
       </c>
     </row>
     <row r="16">
@@ -964,31 +964,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>306744.0</v>
+        <v>307875.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.3332001209104303</v>
+        <v>2.3333930813331962</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>369130.0</v>
+        <v>370545.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.8077294441999427</v>
+        <v>2.8083707326759537</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>119715.0</v>
+        <v>120189.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.9105933693072797</v>
+        <v>0.9109157322041592</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>28727.0</v>
+        <v>28815.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>21465.0</v>
+        <v>21556.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>4024.0</v>
+        <v>4037.0</v>
       </c>
     </row>
     <row r="17">
@@ -996,31 +996,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>534302.0</v>
+        <v>536265.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>4.064084353736943</v>
+        <v>4.0643671644698225</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>376233.0</v>
+        <v>377624.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>2.861757299541292</v>
+        <v>2.86202266811325</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>465731.0</v>
+        <v>467375.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>3.542509798110919</v>
+        <v>3.5422479622837275</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>29441.0</v>
+        <v>29545.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>5318.0</v>
+        <v>5337.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>19231.0</v>
+        <v>19280.0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,31 +1028,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>339187.0</v>
+        <v>340484.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.5799727114833417</v>
+        <v>2.5805375879972456</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>261304.0</v>
+        <v>262253.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.9875678885141328</v>
+        <v>1.9876226902440106</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>235041.0</v>
+        <v>235899.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>1.787802498562021</v>
+        <v>1.7878850003846356</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>23775.0</v>
+        <v>23868.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>20017.0</v>
+        <v>20082.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>12294.0</v>
+        <v>12328.0</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1060,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>71702.0</v>
+        <v>71978.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.5453900160052673</v>
+        <v>0.5455232390034943</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>108555.0</v>
+        <v>109032.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.82570657983671</v>
+        <v>0.8263565227573563</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>84577.0</v>
+        <v>84883.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.6433216839652658</v>
+        <v>0.6433305884622191</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>19231.0</v>
+        <v>19281.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>30549.0</v>
+        <v>30660.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>23767.0</v>
+        <v>23818.0</v>
       </c>
     </row>
     <row r="20">
@@ -1092,31 +1092,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>108500.0</v>
+        <v>108879.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>0.8252882309638712</v>
+        <v>0.8251969315549399</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>219101.0</v>
+        <v>219861.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>1.666557388870186</v>
+        <v>1.6663325578725063</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>73748.0</v>
+        <v>74012.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.5609525940748716</v>
+        <v>0.5609389808709137</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>14127.0</v>
+        <v>14181.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>35120.0</v>
+        <v>35243.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>12816.0</v>
+        <v>12857.0</v>
       </c>
     </row>
     <row r="21">
@@ -1124,31 +1124,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>221648.0</v>
+        <v>222527.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.6859307448541947</v>
+        <v>1.6865382450989272</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>163259.0</v>
+        <v>163856.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>1.2418039751053516</v>
+        <v>1.241869124595801</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>200629.0</v>
+        <v>201389.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.5260530183414796</v>
+        <v>1.526332762506248</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>22924.0</v>
+        <v>23000.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>17323.0</v>
+        <v>17368.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>18391.0</v>
+        <v>18462.0</v>
       </c>
     </row>
     <row r="22">
@@ -1156,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>153140.0</v>
+        <v>153707.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>1.1648353888461498</v>
+        <v>1.1649495748355065</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>161330.0</v>
+        <v>161881.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.2271313391834227</v>
+        <v>1.2269005453489215</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>114397.0</v>
+        <v>114850.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>0.8701428364753362</v>
+        <v>0.8704513045590503</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>25692.0</v>
+        <v>25791.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>24203.0</v>
+        <v>24267.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>13046.0</v>
+        <v>13101.0</v>
       </c>
     </row>
     <row r="23">
@@ -1188,31 +1188,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>120861.0</v>
+        <v>121226.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.9193102385486124</v>
+        <v>0.9187751836872045</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>97931.0</v>
+        <v>98295.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>0.7448967902905334</v>
+        <v>0.7449805048465986</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>87437.0</v>
+        <v>87737.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.6650758253528849</v>
+        <v>0.6649611328523936</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>31339.0</v>
+        <v>31426.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>22488.0</v>
+        <v>22572.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>19820.0</v>
+        <v>19892.0</v>
       </c>
     </row>
     <row r="24">
@@ -1220,31 +1220,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>76501.0</v>
+        <v>76799.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.5818928567462407</v>
+        <v>0.5820617304208141</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>148523.0</v>
+        <v>149050.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>1.1297169025571157</v>
+        <v>1.1296540439227378</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>66846.0</v>
+        <v>67100.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.50845361370517</v>
+        <v>0.5085527430205684</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>17460.0</v>
+        <v>17511.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>34698.0</v>
+        <v>34807.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>13397.0</v>
+        <v>13440.0</v>
       </c>
     </row>
     <row r="25">
@@ -1252,31 +1252,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>215480.0</v>
+        <v>216230.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>1.639014820351106</v>
+        <v>1.6388131091406484</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>105513.0</v>
+        <v>105837.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>0.8025680839971516</v>
+        <v>0.8021415300010117</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>113096.0</v>
+        <v>113458.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>0.8602469840469122</v>
+        <v>0.8599012983253002</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>35021.0</v>
+        <v>35149.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>13761.0</v>
+        <v>13807.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>14682.0</v>
+        <v>14732.0</v>
       </c>
     </row>
     <row r="26">
@@ -1284,31 +1284,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>160691.0</v>
+        <v>161347.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>1.2222708859153495</v>
+        <v>1.2228533446816636</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>120613.0</v>
+        <v>121024.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.9174238654492665</v>
+        <v>0.917244220138916</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>184238.0</v>
+        <v>184918.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>1.401377447892366</v>
+        <v>1.4014986011010053</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>23067.0</v>
+        <v>23154.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>15380.0</v>
+        <v>15421.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>24240.0</v>
+        <v>24312.0</v>
       </c>
     </row>
     <row r="27">
@@ -1316,31 +1316,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>54206.0</v>
+        <v>54390.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.4123094363836646</v>
+        <v>0.4122233039178646</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>45033.0</v>
+        <v>45202.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.34253645073729044</v>
+        <v>0.34258719955314054</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>65750.0</v>
+        <v>65981.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.5001170616209635</v>
+        <v>0.5000718112852477</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>23493.0</v>
+        <v>23569.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>22735.0</v>
+        <v>22808.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>29015.0</v>
+        <v>29121.0</v>
       </c>
     </row>
     <row r="28">
@@ -1348,31 +1348,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>54102.0</v>
+        <v>54312.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.4115183766968421</v>
+        <v>0.4116321397754561</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>130791.0</v>
+        <v>131256.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>0.9948412259538773</v>
+        <v>0.9947928291789526</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>107124.0</v>
+        <v>107580.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.814821902799758</v>
+        <v>0.8153517748755997</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>10641.0</v>
+        <v>10672.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>29986.0</v>
+        <v>30071.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>22856.0</v>
+        <v>22935.0</v>
       </c>
     </row>
     <row r="29">
@@ -1380,31 +1380,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>177319.0</v>
+        <v>177931.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.3487491596892414</v>
+        <v>1.348543936190652</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>42064.0</v>
+        <v>42230.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.3199532179471362</v>
+        <v>0.32006232992188677</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>102917.0</v>
+        <v>103232.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.7828220171991588</v>
+        <v>0.7823981634500642</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>33972.0</v>
+        <v>34082.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>9640.0</v>
+        <v>9670.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>18475.0</v>
+        <v>18539.0</v>
       </c>
     </row>
     <row r="30">
@@ -1412,31 +1412,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>199893.0</v>
+        <v>200582.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.5204547497885816</v>
+        <v>1.5202164873405608</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>308438.0</v>
+        <v>309501.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>2.3460852661938665</v>
+        <v>2.3457165799941717</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>82851.0</v>
+        <v>83132.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.6301931357012691</v>
+        <v>0.630059711367897</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>14544.0</v>
+        <v>14602.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>34382.0</v>
+        <v>34500.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>4641.0</v>
+        <v>4663.0</v>
       </c>
     </row>
     <row r="31">
@@ -1444,31 +1444,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>97771.0</v>
+        <v>98111.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>0.7436797753877294</v>
+        <v>0.7435859637927121</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>219282.0</v>
+        <v>220092.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>1.6679341369789829</v>
+        <v>1.6680833132173314</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>91796.0</v>
+        <v>92094.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>0.6982318751111477</v>
+        <v>0.69798295552513</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>12505.0</v>
+        <v>12549.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>38647.0</v>
+        <v>38778.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>11419.0</v>
+        <v>11454.0</v>
       </c>
     </row>
     <row r="32">
@@ -1476,31 +1476,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>91181.0</v>
+        <v>91516.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.6935539740784954</v>
+        <v>0.6936022776493342</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>241493.0</v>
+        <v>242295.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>1.8368786245175868</v>
+        <v>1.8363604600621253</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>49444.0</v>
+        <v>49606.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.37608803033896454</v>
+        <v>0.3759652365168154</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>12545.0</v>
+        <v>12585.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>40024.0</v>
+        <v>40154.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>10028.0</v>
+        <v>10057.0</v>
       </c>
     </row>
     <row r="33">
@@ -1508,31 +1508,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>295122.0</v>
+        <v>296139.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>2.244799200908015</v>
+        <v>2.244445614983131</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>313303.0</v>
+        <v>314400.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.3830901255822465</v>
+        <v>2.3828462355538997</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>223636.0</v>
+        <v>224352.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.701052155021533</v>
+        <v>1.7003699702257906</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>20000.0</v>
+        <v>20071.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>28564.0</v>
+        <v>28658.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>10107.0</v>
+        <v>10131.0</v>
       </c>
     </row>
     <row r="34">
@@ -1540,31 +1540,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>510061.0</v>
+        <v>511927.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>3.8796989896190146</v>
+        <v>3.879908793983465</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>269975.0</v>
+        <v>270981.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>2.05352248990296</v>
+        <v>2.053772441974018</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>314259.0</v>
+        <v>315323.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>2.3903617896264997</v>
+        <v>2.389841677905733</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>33721.0</v>
+        <v>33823.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>14217.0</v>
+        <v>14261.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>11498.0</v>
+        <v>11529.0</v>
       </c>
     </row>
     <row r="35">
@@ -1572,31 +1572,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>110929.0</v>
+        <v>111351.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>0.8437640384570625</v>
+        <v>0.8439322874528064</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>99082.0</v>
+        <v>99510.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.7536516912475787</v>
+        <v>0.7541890232187296</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>105170.0</v>
+        <v>105500.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.7999591082992659</v>
+        <v>0.7995873977447088</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>17426.0</v>
+        <v>17485.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>21833.0</v>
+        <v>21928.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>24170.0</v>
+        <v>24235.0</v>
       </c>
     </row>
     <row r="36">
@@ -1604,31 +1604,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>197134.0</v>
+        <v>197768.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>1.4994688490583574</v>
+        <v>1.4988891040490575</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>179613.0</v>
+        <v>180334.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.3661981108581918</v>
+        <v>1.366756339193311</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>120292.0</v>
+        <v>120717.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.9149822293005162</v>
+        <v>0.9149174587066162</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>26080.0</v>
+        <v>26149.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>28657.0</v>
+        <v>28761.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>14533.0</v>
+        <v>14574.0</v>
       </c>
     </row>
     <row r="37">
@@ -1636,31 +1636,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>439884.0</v>
+        <v>441548.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>3.345908646906097</v>
+        <v>3.346504419899343</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>182969.0</v>
+        <v>183652.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>1.3917249984445028</v>
+        <v>1.3919035523280687</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>255829.0</v>
+        <v>256740.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>1.9459231598088131</v>
+        <v>1.9458395118196827</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>28878.0</v>
+        <v>28990.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>10407.0</v>
+        <v>10435.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>19941.0</v>
+        <v>19993.0</v>
       </c>
     </row>
     <row r="38">
@@ -1668,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>204779.0</v>
+        <v>205488.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.5576193423829547</v>
+        <v>1.5573991960925566</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>81238.0</v>
+        <v>81527.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.6179241042123776</v>
+        <v>0.6178953722837239</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>99720.0</v>
+        <v>100055.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>0.7585045381725091</v>
+        <v>0.7583195931881217</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>35703.0</v>
+        <v>35825.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>9301.0</v>
+        <v>9330.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>10841.0</v>
+        <v>10884.0</v>
       </c>
     </row>
     <row r="39">
@@ -1700,31 +1700,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>101940.0</v>
+        <v>102324.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>0.7753906199489128</v>
+        <v>0.775516406510233</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>54696.0</v>
+        <v>54896.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.41603654452350136</v>
+        <v>0.4160582918160525</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>66132.0</v>
+        <v>66363.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.5030226847014077</v>
+        <v>0.5029669997775555</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>31064.0</v>
+        <v>31169.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>16042.0</v>
+        <v>16091.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>23913.0</v>
+        <v>23981.0</v>
       </c>
     </row>
     <row r="40">
@@ -1732,31 +1732,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>77488.0</v>
+        <v>77768.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.589400317427912</v>
+        <v>0.5894058080361186</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>67814.0</v>
+        <v>68052.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.5158165538671333</v>
+        <v>0.5157679771689376</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>55956.0</v>
+        <v>56124.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.4256205368830818</v>
+        <v>0.4253653375452515</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>28491.0</v>
+        <v>28601.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>23559.0</v>
+        <v>23648.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>21120.0</v>
+        <v>21185.0</v>
       </c>
     </row>
     <row r="41">
@@ -1764,31 +1764,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>293898.0</v>
+        <v>294979.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.235489036901565</v>
+        <v>2.235653943121673</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>50269.0</v>
+        <v>50416.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.382363263431547</v>
+        <v>0.38210424876490273</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>76373.0</v>
+        <v>76632.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>0.5809192448239976</v>
+        <v>0.5807960328338628</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>43246.0</v>
+        <v>43394.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>5221.0</v>
+        <v>5235.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>6701.0</v>
+        <v>6724.0</v>
       </c>
     </row>
     <row r="42">
@@ -1796,31 +1796,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>341493.0</v>
+        <v>342818.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.5975129387700022</v>
+        <v>2.5982270381046972</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>160692.0</v>
+        <v>161285.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>1.2222784922584922</v>
+        <v>1.2223834449787239</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>254245.0</v>
+        <v>255102.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>1.9338747122710547</v>
+        <v>1.933425064829106</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>30205.0</v>
+        <v>30319.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>9401.0</v>
+        <v>9428.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>19446.0</v>
+        <v>19499.0</v>
       </c>
     </row>
     <row r="43">
@@ -1828,31 +1828,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>90346.0</v>
+        <v>90655.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.6872026775544876</v>
+        <v>0.6870767350004415</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>75849.0</v>
+        <v>76112.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.5769335210173149</v>
+        <v>0.57685493855114</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>139973.0</v>
+        <v>140432.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>1.064682668688534</v>
+        <v>1.0643379852140753</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>16174.0</v>
+        <v>16234.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>13496.0</v>
+        <v>13546.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>34863.0</v>
+        <v>34985.0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,31 +1860,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>162669.0</v>
+        <v>163193.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.2373162326512623</v>
+        <v>1.2368442293853295</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>187097.0</v>
+        <v>187752.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.4231239829368425</v>
+        <v>1.4229775649418444</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>213016.0</v>
+        <v>213801.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>1.620272790847926</v>
+        <v>1.620403651423853</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>18183.0</v>
+        <v>18238.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>20832.0</v>
+        <v>20914.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>29621.0</v>
+        <v>29713.0</v>
       </c>
     </row>
     <row r="45">
@@ -1892,31 +1892,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>295492.0</v>
+        <v>296565.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>2.2476135478707486</v>
+        <v>2.247674280683977</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>113069.0</v>
+        <v>113456.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.860041612782064</v>
+        <v>0.8598861402703667</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>127701.0</v>
+        <v>128160.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>0.9713376256434776</v>
+        <v>0.9713281601418187</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>38118.0</v>
+        <v>38240.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>7587.0</v>
+        <v>7604.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>10559.0</v>
+        <v>10599.0</v>
       </c>
     </row>
     <row r="46">
@@ -1924,31 +1924,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>259127.0</v>
+        <v>260021.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>1.9710088794928577</v>
+        <v>1.97070630093817</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>234929.0</v>
+        <v>235754.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.7869505881300582</v>
+        <v>1.7867860414019534</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>61017.0</v>
+        <v>61260.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.4641162395273966</v>
+        <v>0.4642912226146053</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>29094.0</v>
+        <v>29181.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>24376.0</v>
+        <v>24464.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>4378.0</v>
+        <v>4392.0</v>
       </c>
     </row>
     <row r="47">
@@ -1956,31 +1956,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>95134.0</v>
+        <v>95474.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>0.7236218485208933</v>
+        <v>0.7236000683628278</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>143981.0</v>
+        <v>144488.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>1.0951688920037708</v>
+        <v>1.0950785206193125</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>86813.0</v>
+        <v>87101.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.6603294672319497</v>
+        <v>0.660140871383525</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>17645.0</v>
+        <v>17699.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>30674.0</v>
+        <v>30780.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>11764.0</v>
+        <v>11800.0</v>
       </c>
     </row>
     <row r="48">
@@ -1988,31 +1988,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>109823.0</v>
+        <v>110170.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>0.8353514229414306</v>
+        <v>0.8349814560145457</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>190816.0</v>
+        <v>191478.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.45141197308389</v>
+        <v>1.451217021283046</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>50950.0</v>
+        <v>51115.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.3875431831116059</v>
+        <v>0.3874019889641781</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>18908.0</v>
+        <v>18974.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>35555.0</v>
+        <v>35669.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>10004.0</v>
+        <v>10041.0</v>
       </c>
     </row>
     <row r="49">
@@ -2020,31 +2020,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>261795.0</v>
+        <v>262723.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>1.9913026029971124</v>
+        <v>1.9911848331533946</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>227305.0</v>
+        <v>228141.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.728959828011454</v>
+        <v>1.729086905297399</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>168660.0</v>
+        <v>169305.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.2828858344181246</v>
+        <v>1.2831672452622551</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>26246.0</v>
+        <v>26331.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>20826.0</v>
+        <v>20894.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>9728.0</v>
+        <v>9763.0</v>
       </c>
     </row>
     <row r="50">
@@ -2055,28 +2055,28 @@
         <v>279.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>0.0021221697367642405</v>
+        <v>0.0021145486632300828</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>323352.0</v>
+        <v>324576.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>2.4595262678214715</v>
+        <v>2.4599704190557974</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>336790.0</v>
+        <v>338005.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>2.5617403069707114</v>
+        <v>2.5617491789071116</v>
       </c>
       <c r="H50" t="n" s="6">
-        <v>796.0</v>
+        <v>804.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>25720.0</v>
+        <v>25824.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>25771.0</v>
+        <v>25850.0</v>
       </c>
     </row>
     <row r="51">
@@ -2084,31 +2084,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>98301.0</v>
+        <v>98640.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>0.7477111372532674</v>
+        <v>0.7475952693226358</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>193759.0</v>
+        <v>194499.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>1.4737974409523384</v>
+        <v>1.4741132632601717</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>244348.0</v>
+        <v>245213.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.858594734189493</v>
+        <v>1.8584760622101733</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>4092.0</v>
+        <v>4110.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>20253.0</v>
+        <v>20332.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>31920.0</v>
+        <v>32010.0</v>
       </c>
     </row>
     <row r="52">
@@ -2119,28 +2119,28 @@
         <v>45.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>3.4228544141358717E-4</v>
+        <v>3.4105623600485206E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>360932.0</v>
+        <v>362207.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>2.7453726431175296</v>
+        <v>2.7451768016579883</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>203742.0</v>
+        <v>204453.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>1.5497315645441572</v>
+        <v>1.549554902664445</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>677.0</v>
+        <v>685.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>38119.0</v>
+        <v>38241.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>11270.0</v>
+        <v>11316.0</v>
       </c>
     </row>
     <row r="53">
@@ -2148,31 +2148,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>379025.0</v>
+        <v>380426.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>2.8829942095952195</v>
+        <v>2.883259103075152</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>329011.0</v>
+        <v>330177.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>2.5025705636650164</v>
+        <v>2.502420551897201</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>461162.0</v>
+        <v>462949.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>3.507756416292726</v>
+        <v>3.508703186715784</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>12051.0</v>
+        <v>12086.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>13544.0</v>
+        <v>13580.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>28179.0</v>
+        <v>28286.0</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2180,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>202505.0</v>
+        <v>203279.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>1.5403225180768547</v>
+        <v>1.5406571244184517</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>194422.0</v>
+        <v>195180.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.478840446455832</v>
+        <v>1.4792745809650452</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>328421.0</v>
+        <v>329689.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>2.498082821210927</v>
+        <v>2.498721986493415</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>16556.0</v>
+        <v>16602.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>12476.0</v>
+        <v>12514.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>30323.0</v>
+        <v>30424.0</v>
       </c>
     </row>
     <row r="55">
@@ -2212,31 +2212,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>173037.0</v>
+        <v>173633.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.3161787983529527</v>
+        <v>1.3159692761384552</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>149348.0</v>
+        <v>149861.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.1359921356496983</v>
+        <v>1.135800635198292</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>260954.0</v>
+        <v>261848.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.9849056684142492</v>
+        <v>1.9845531841199668</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>13063.0</v>
+        <v>13103.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>14041.0</v>
+        <v>14088.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>32914.0</v>
+        <v>33025.0</v>
       </c>
     </row>
     <row r="56">
@@ -2244,31 +2244,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>106210.0</v>
+        <v>106569.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.8078697051674908</v>
+        <v>0.8076893781066907</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>149859.0</v>
+        <v>150413.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>1.139878976995528</v>
+        <v>1.1399842583599515</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>204626.0</v>
+        <v>205396.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.5564555718821487</v>
+        <v>1.5567019255656134</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>10487.0</v>
+        <v>10509.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>19807.0</v>
+        <v>19873.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>30708.0</v>
+        <v>30807.0</v>
       </c>
     </row>
     <row r="57">
@@ -2276,31 +2276,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>286185.0</v>
+        <v>287186.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.1768213122432765</v>
+        <v>2.176590582073099</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>199874.0</v>
+        <v>200521.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.5203102292688737</v>
+        <v>1.5197541666650878</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>350482.0</v>
+        <v>351625.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.6658863572781524</v>
+        <v>2.6649755330045806</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>17892.0</v>
+        <v>17969.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>9411.0</v>
+        <v>9448.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>27529.0</v>
+        <v>27622.0</v>
       </c>
     </row>
     <row r="58">
@@ -2311,28 +2311,28 @@
         <v>106.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>8.062723731075608E-4</v>
+        <v>8.03376911478096E-4</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>298969.0</v>
+        <v>299993.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>2.274060802977305</v>
+        <v>2.27365518684008</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>414497.0</v>
+        <v>416012.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>3.152806413546836</v>
+        <v>3.1529663745077894</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>2456.0</v>
+        <v>2464.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>26015.0</v>
+        <v>26096.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>25572.0</v>
+        <v>25667.0</v>
       </c>
     </row>
     <row r="59">
@@ -2340,31 +2340,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>44370.0</v>
+        <v>44529.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.33749344523379693</v>
+        <v>0.3374865140680013</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>110159.0</v>
+        <v>110546.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>0.8379071542373188</v>
+        <v>0.8378311703420529</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>232937.0</v>
+        <v>233818.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>1.77179875259015</v>
+        <v>1.772113044226278</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>6217.0</v>
+        <v>6233.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>16704.0</v>
+        <v>16750.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>38320.0</v>
+        <v>38456.0</v>
       </c>
     </row>
     <row r="60">
@@ -2372,31 +2372,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>234636.0</v>
+        <v>235491.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>1.7847219295892984</v>
+        <v>1.7847927571781916</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>268432.0</v>
+        <v>269372.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>2.041785902434045</v>
+        <v>2.0415777867799783</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>306607.0</v>
+        <v>307714.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.3321580518999045</v>
+        <v>2.3321728579110457</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>11778.0</v>
+        <v>11814.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>22056.0</v>
+        <v>22124.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>20968.0</v>
+        <v>21040.0</v>
       </c>
     </row>
     <row r="61">
@@ -2404,31 +2404,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>109375.0</v>
+        <v>109763.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.8319437812135798</v>
+        <v>0.8318967918355685</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>129050.0</v>
+        <v>129559.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>0.9815985825427427</v>
+        <v>0.9819312195678362</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>277608.0</v>
+        <v>278548.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.1115817071098464</v>
+        <v>2.111122942815101</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>10142.0</v>
+        <v>10168.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>13494.0</v>
+        <v>13538.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>36305.0</v>
+        <v>36424.0</v>
       </c>
     </row>
     <row r="62">
@@ -2436,31 +2436,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>419001.0</v>
+        <v>420525.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>3.187065383060765</v>
+        <v>3.187170525465343</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>287604.0</v>
+        <v>288676.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>2.1876147131625183</v>
+        <v>2.187883332998593</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>207101.0</v>
+        <v>207903.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.5752812711598958</v>
+        <v>1.575702547424817</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>32708.0</v>
+        <v>32813.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>13267.0</v>
+        <v>13310.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>6379.0</v>
+        <v>6405.0</v>
       </c>
     </row>
     <row r="63">
@@ -2468,31 +2468,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>282380.0</v>
+        <v>283329.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>2.147879176585972</v>
+        <v>2.14735827313375</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>423532.0</v>
+        <v>424960.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>3.221529723839542</v>
+        <v>3.2207835122804873</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>335853.0</v>
+        <v>337075.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.554613163446166</v>
+        <v>2.5547006833630115</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>9608.0</v>
+        <v>9636.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>30396.0</v>
+        <v>30488.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>13049.0</v>
+        <v>13112.0</v>
       </c>
     </row>
     <row r="64">
@@ -2500,31 +2500,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>298862.0</v>
+        <v>299909.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>2.273246924261055</v>
+        <v>2.2730185485328707</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>430210.0</v>
+        <v>431774.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>3.2723248833453185</v>
+        <v>3.2724270054390887</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>181627.0</v>
+        <v>182256.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>1.3815172859472353</v>
+        <v>1.3813232299844516</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>16407.0</v>
+        <v>16449.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>31537.0</v>
+        <v>31644.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>7484.0</v>
+        <v>7510.0</v>
       </c>
     </row>
     <row r="65">
@@ -2532,31 +2532,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>504693.0</v>
+        <v>506422.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>3.838868139629945</v>
+        <v>3.8381862477788715</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>454566.0</v>
+        <v>456139.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.4575849769246365</v>
+        <v>3.4570900096670494</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>646826.0</v>
+        <v>649070.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>4.919980509506332</v>
+        <v>4.919319357859319</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>10498.0</v>
+        <v>10527.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>11056.0</v>
+        <v>11092.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>31843.0</v>
+        <v>31958.0</v>
       </c>
     </row>
     <row r="67">
@@ -2564,31 +2564,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>1.3146922E7</v>
+        <v>1.3194305E7</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>100.00000000000001</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>1.3146922E7</v>
+        <v>1.3194305E7</v>
       </c>
       <c r="E67" t="n" s="9">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>1.3146922E7</v>
+        <v>1.3194305E7</v>
       </c>
       <c r="G67" t="n" s="9">
-        <v>100.0</v>
+        <v>99.99999999999996</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>1.052035491E9</v>
+        <v>1.057911498E9</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>1.045773441E9</v>
+        <v>1.051679166E9</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>1.048001956E9</v>
+        <v>1.053941582E9</v>
       </c>
     </row>
     <row r="68"/>
@@ -2597,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>2038235.0</v>
+        <v>2045588.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>10.329427151828215</v>
+        <v>10.32946573635621</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>2044268.0</v>
+        <v>2051819.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>10.360001366286792</v>
+        <v>10.360929990645557</v>
       </c>
     </row>
     <row r="72">
@@ -2614,16 +2614,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>857218.0</v>
+        <v>860333.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.3442345383313885</v>
+        <v>4.344364674292452</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>852836.0</v>
+        <v>856090.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.3220273101269315</v>
+        <v>4.322939087556824</v>
       </c>
     </row>
     <row r="73">
@@ -2631,16 +2631,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>1110029.0</v>
+        <v>1114024.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>5.625437543716362</v>
+        <v>5.625410755967717</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>1123403.0</v>
+        <v>1127303.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>5.693214693421156</v>
+        <v>5.692464813536042</v>
       </c>
     </row>
     <row r="74">
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>1979739.0</v>
+        <v>1987168.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>10.032979406267303</v>
+        <v>10.034466260255485</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>1924512.0</v>
+        <v>1931650.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>9.75309839484614</v>
+        <v>9.754120814960038</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>1031015.0</v>
+        <v>1034975.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.225008075586066</v>
+        <v>5.22624243028668</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>1056236.0</v>
+        <v>1060078.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.352823799580729</v>
+        <v>5.353003331494426</v>
       </c>
     </row>
     <row r="76">
@@ -2682,16 +2682,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>730600.0</v>
+        <v>733223.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>3.7025561219023775</v>
+        <v>3.702506005905544</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>730455.0</v>
+        <v>732947.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>3.701821286646868</v>
+        <v>3.7011123075932573</v>
       </c>
     </row>
     <row r="77">
@@ -2699,16 +2699,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>625845.0</v>
+        <v>628153.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>3.1716756585162793</v>
+        <v>3.171941217238937</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>619003.0</v>
+        <v>621250.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>3.1370015701148892</v>
+        <v>3.1370836105370663</v>
       </c>
     </row>
     <row r="78">
@@ -2716,16 +2716,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>1102080.0</v>
+        <v>1105956.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>5.585153368226352</v>
+        <v>5.584670328491158</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>1112130.0</v>
+        <v>1115864.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>5.63608505317724</v>
+        <v>5.634702078049631</v>
       </c>
     </row>
     <row r="79">
@@ -2733,16 +2733,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>1403531.0</v>
+        <v>1408543.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>7.1128555931149275</v>
+        <v>7.112623195230118</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>1381666.0</v>
+        <v>1386808.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>7.002047504413319</v>
+        <v>7.002869453137525</v>
       </c>
     </row>
     <row r="80">
@@ -2750,16 +2750,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>627392.0</v>
+        <v>629541.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>3.1795155905181725</v>
+        <v>3.178950105852902</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>602911.0</v>
+        <v>605083.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>3.0554500602412875</v>
+        <v>3.0554462170053918</v>
       </c>
     </row>
     <row r="81">
@@ -2767,16 +2767,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>1093874.0</v>
+        <v>1097793.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>5.543566760593816</v>
+        <v>5.543450186015803</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>1067768.0</v>
+        <v>1071538.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>5.4112660076258665</v>
+        <v>5.410872109243729</v>
       </c>
     </row>
     <row r="82">
@@ -2784,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>921200.0</v>
+        <v>924496.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.668484395697332</v>
+        <v>4.6683641844781905</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>969150.0</v>
+        <v>972534.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.911486812950574</v>
+        <v>4.910938385658036</v>
       </c>
     </row>
     <row r="83">
@@ -2801,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>1472238.0</v>
+        <v>1477756.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>7.46105094415181</v>
+        <v>7.462123344825453</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>1474617.0</v>
+        <v>1479878.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>7.473107310171528</v>
+        <v>7.47283866300905</v>
       </c>
     </row>
     <row r="84">
@@ -2818,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>1302614.0</v>
+        <v>1307042.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.601425458767786</v>
+        <v>6.600080541623482</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>1303309.0</v>
+        <v>1308158.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.604947600164887</v>
+        <v>6.6057159304514235</v>
       </c>
     </row>
     <row r="85">
@@ -2835,16 +2835,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>1191747.0</v>
+        <v>1195993.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>6.03957042240459</v>
+        <v>6.039324005822225</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>1242752.0</v>
+        <v>1247228.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>6.298055058317033</v>
+        <v>6.2980418791193955</v>
       </c>
     </row>
     <row r="86">
@@ -2852,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>2244957.0</v>
+        <v>2252841.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>11.37705897037722</v>
+        <v>11.376017027357642</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>2227298.0</v>
+        <v>2235197.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>11.28756617191476</v>
+        <v>11.286921328002606</v>
       </c>
     </row>
     <row r="88">
@@ -2869,13 +2869,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>1.9732314E7</v>
+        <v>1.9803425E7</v>
       </c>
       <c r="C88" t="n" s="16">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>1.9732314E7</v>
+        <v>1.9803425E7</v>
       </c>
       <c r="E88" t="n" s="16">
         <v>100.0</v>
